--- a/2022/Symphony/MARCH/03.03.2022/MC Bank Statement March-2022.xlsx
+++ b/2022/Symphony/MARCH/03.03.2022/MC Bank Statement March-2022.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="219">
   <si>
     <t>Date</t>
   </si>
@@ -668,9 +668,6 @@
     <t>03.03.2022</t>
   </si>
   <si>
-    <t>Date:03.03.2022</t>
-  </si>
-  <si>
     <t>singra</t>
   </si>
   <si>
@@ -687,6 +684,12 @@
   </si>
   <si>
     <t>Harun</t>
+  </si>
+  <si>
+    <t>Bagha+Charghat+Puthia Route Due List</t>
+  </si>
+  <si>
+    <t>Date:05.03.2022</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1961,6 +1964,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2023,7 +2037,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="361">
+  <cellXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2925,6 +2939,9 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2936,12 +2953,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2974,6 +2985,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3072,7 +3089,22 @@
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="43" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="42" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="42" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="42" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3749,33 +3781,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="313"/>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
+      <c r="A1" s="314"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="314"/>
-      <c r="B2" s="311" t="s">
+      <c r="A2" s="315"/>
+      <c r="B2" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="311"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="314"/>
-      <c r="B3" s="312" t="s">
+      <c r="A3" s="315"/>
+      <c r="B3" s="313" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="314"/>
+      <c r="A4" s="315"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3793,7 +3825,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="314"/>
+      <c r="A5" s="315"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3811,7 +3843,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="314"/>
+      <c r="A6" s="315"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3823,7 +3855,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="314"/>
+      <c r="A7" s="315"/>
       <c r="B7" s="26" t="s">
         <v>58</v>
       </c>
@@ -3842,7 +3874,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="314"/>
+      <c r="A8" s="315"/>
       <c r="B8" s="26" t="s">
         <v>59</v>
       </c>
@@ -3861,7 +3893,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="314"/>
+      <c r="A9" s="315"/>
       <c r="B9" s="26" t="s">
         <v>61</v>
       </c>
@@ -3880,7 +3912,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="314"/>
+      <c r="A10" s="315"/>
       <c r="B10" s="26" t="s">
         <v>62</v>
       </c>
@@ -3899,7 +3931,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="314"/>
+      <c r="A11" s="315"/>
       <c r="B11" s="26" t="s">
         <v>63</v>
       </c>
@@ -3918,7 +3950,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="314"/>
+      <c r="A12" s="315"/>
       <c r="B12" s="26" t="s">
         <v>64</v>
       </c>
@@ -3937,7 +3969,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="314"/>
+      <c r="A13" s="315"/>
       <c r="B13" s="26" t="s">
         <v>65</v>
       </c>
@@ -3956,7 +3988,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="314"/>
+      <c r="A14" s="315"/>
       <c r="B14" s="26" t="s">
         <v>66</v>
       </c>
@@ -3975,7 +4007,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="314"/>
+      <c r="A15" s="315"/>
       <c r="B15" s="26" t="s">
         <v>67</v>
       </c>
@@ -3994,7 +4026,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="314"/>
+      <c r="A16" s="315"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4007,7 +4039,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="314"/>
+      <c r="A17" s="315"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4020,7 +4052,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="314"/>
+      <c r="A18" s="315"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4033,7 +4065,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="314"/>
+      <c r="A19" s="315"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4046,7 +4078,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="314"/>
+      <c r="A20" s="315"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4059,7 +4091,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="314"/>
+      <c r="A21" s="315"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4072,7 +4104,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="314"/>
+      <c r="A22" s="315"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4085,7 +4117,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="314"/>
+      <c r="A23" s="315"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4098,7 +4130,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="314"/>
+      <c r="A24" s="315"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4111,7 +4143,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="314"/>
+      <c r="A25" s="315"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4124,7 +4156,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="314"/>
+      <c r="A26" s="315"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4137,7 +4169,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="314"/>
+      <c r="A27" s="315"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4150,7 +4182,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="314"/>
+      <c r="A28" s="315"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4163,7 +4195,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="314"/>
+      <c r="A29" s="315"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4176,7 +4208,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="314"/>
+      <c r="A30" s="315"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4189,7 +4221,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="314"/>
+      <c r="A31" s="315"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4202,7 +4234,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="314"/>
+      <c r="A32" s="315"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4215,7 +4247,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="314"/>
+      <c r="A33" s="315"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4228,7 +4260,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="314"/>
+      <c r="A34" s="315"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4241,7 +4273,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="314"/>
+      <c r="A35" s="315"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4254,7 +4286,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="314"/>
+      <c r="A36" s="315"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4267,7 +4299,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="314"/>
+      <c r="A37" s="315"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4280,7 +4312,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="314"/>
+      <c r="A38" s="315"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4293,7 +4325,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="314"/>
+      <c r="A39" s="315"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4306,7 +4338,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="314"/>
+      <c r="A40" s="315"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4319,7 +4351,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="314"/>
+      <c r="A41" s="315"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4332,7 +4364,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="314"/>
+      <c r="A42" s="315"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4345,7 +4377,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="314"/>
+      <c r="A43" s="315"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4358,7 +4390,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="314"/>
+      <c r="A44" s="315"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4371,7 +4403,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="314"/>
+      <c r="A45" s="315"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4384,7 +4416,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="314"/>
+      <c r="A46" s="315"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4397,7 +4429,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="314"/>
+      <c r="A47" s="315"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4410,7 +4442,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="314"/>
+      <c r="A48" s="315"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4423,7 +4455,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="314"/>
+      <c r="A49" s="315"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4436,7 +4468,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="314"/>
+      <c r="A50" s="315"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4449,7 +4481,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="314"/>
+      <c r="A51" s="315"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4462,7 +4494,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="314"/>
+      <c r="A52" s="315"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4475,7 +4507,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="314"/>
+      <c r="A53" s="315"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4488,7 +4520,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="314"/>
+      <c r="A54" s="315"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4501,7 +4533,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="314"/>
+      <c r="A55" s="315"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4513,7 +4545,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="314"/>
+      <c r="A56" s="315"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4525,7 +4557,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="314"/>
+      <c r="A57" s="315"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4537,7 +4569,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="314"/>
+      <c r="A58" s="315"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4549,7 +4581,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="314"/>
+      <c r="A59" s="315"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4561,7 +4593,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="314"/>
+      <c r="A60" s="315"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4573,7 +4605,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="314"/>
+      <c r="A61" s="315"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4585,7 +4617,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="314"/>
+      <c r="A62" s="315"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4597,7 +4629,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="314"/>
+      <c r="A63" s="315"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4609,7 +4641,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="314"/>
+      <c r="A64" s="315"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4621,7 +4653,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="314"/>
+      <c r="A65" s="315"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4633,7 +4665,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="314"/>
+      <c r="A66" s="315"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4645,7 +4677,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="314"/>
+      <c r="A67" s="315"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4657,7 +4689,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="314"/>
+      <c r="A68" s="315"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4669,7 +4701,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="314"/>
+      <c r="A69" s="315"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4681,7 +4713,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="314"/>
+      <c r="A70" s="315"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4693,7 +4725,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="314"/>
+      <c r="A71" s="315"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4705,7 +4737,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="314"/>
+      <c r="A72" s="315"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4717,7 +4749,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="314"/>
+      <c r="A73" s="315"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4729,7 +4761,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="314"/>
+      <c r="A74" s="315"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4741,7 +4773,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="314"/>
+      <c r="A75" s="315"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4753,7 +4785,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="314"/>
+      <c r="A76" s="315"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4765,7 +4797,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="314"/>
+      <c r="A77" s="315"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4777,7 +4809,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="314"/>
+      <c r="A78" s="315"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4789,7 +4821,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="314"/>
+      <c r="A79" s="315"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4801,7 +4833,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="314"/>
+      <c r="A80" s="315"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4813,7 +4845,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="314"/>
+      <c r="A81" s="315"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4825,7 +4857,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="314"/>
+      <c r="A82" s="315"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4837,7 +4869,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="314"/>
+      <c r="A83" s="315"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4894,33 +4926,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="313"/>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
+      <c r="A1" s="314"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="314"/>
-      <c r="B2" s="311" t="s">
+      <c r="A2" s="315"/>
+      <c r="B2" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="311"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="314"/>
-      <c r="B3" s="312" t="s">
+      <c r="A3" s="315"/>
+      <c r="B3" s="313" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="314"/>
+      <c r="A4" s="315"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4938,7 +4970,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="314"/>
+      <c r="A5" s="315"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4956,7 +4988,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="314"/>
+      <c r="A6" s="315"/>
       <c r="B6" s="26"/>
       <c r="C6" s="266"/>
       <c r="D6" s="266"/>
@@ -4968,7 +5000,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="314"/>
+      <c r="A7" s="315"/>
       <c r="B7" s="26" t="s">
         <v>195</v>
       </c>
@@ -4986,7 +5018,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="314"/>
+      <c r="A8" s="315"/>
       <c r="B8" s="26" t="s">
         <v>204</v>
       </c>
@@ -5004,7 +5036,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="314"/>
+      <c r="A9" s="315"/>
       <c r="B9" s="26" t="s">
         <v>210</v>
       </c>
@@ -5022,7 +5054,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="314"/>
+      <c r="A10" s="315"/>
       <c r="B10" s="26"/>
       <c r="C10" s="269"/>
       <c r="D10" s="269"/>
@@ -5034,7 +5066,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="314"/>
+      <c r="A11" s="315"/>
       <c r="B11" s="26"/>
       <c r="C11" s="266"/>
       <c r="D11" s="266"/>
@@ -5046,7 +5078,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="314"/>
+      <c r="A12" s="315"/>
       <c r="B12" s="26"/>
       <c r="C12" s="266"/>
       <c r="D12" s="266"/>
@@ -5058,7 +5090,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="314"/>
+      <c r="A13" s="315"/>
       <c r="B13" s="26"/>
       <c r="C13" s="266"/>
       <c r="D13" s="266"/>
@@ -5070,7 +5102,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="314"/>
+      <c r="A14" s="315"/>
       <c r="B14" s="26"/>
       <c r="C14" s="266"/>
       <c r="D14" s="266"/>
@@ -5082,7 +5114,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="314"/>
+      <c r="A15" s="315"/>
       <c r="B15" s="26"/>
       <c r="C15" s="266"/>
       <c r="D15" s="266"/>
@@ -5094,7 +5126,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="314"/>
+      <c r="A16" s="315"/>
       <c r="B16" s="26"/>
       <c r="C16" s="266"/>
       <c r="D16" s="266"/>
@@ -5106,7 +5138,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="314"/>
+      <c r="A17" s="315"/>
       <c r="B17" s="26"/>
       <c r="C17" s="266"/>
       <c r="D17" s="266"/>
@@ -5118,7 +5150,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="314"/>
+      <c r="A18" s="315"/>
       <c r="B18" s="26"/>
       <c r="C18" s="266"/>
       <c r="D18" s="266"/>
@@ -5130,7 +5162,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="314"/>
+      <c r="A19" s="315"/>
       <c r="B19" s="26"/>
       <c r="C19" s="266"/>
       <c r="D19" s="269"/>
@@ -5142,7 +5174,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="314"/>
+      <c r="A20" s="315"/>
       <c r="B20" s="26"/>
       <c r="C20" s="266"/>
       <c r="D20" s="266"/>
@@ -5154,7 +5186,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="314"/>
+      <c r="A21" s="315"/>
       <c r="B21" s="26"/>
       <c r="C21" s="266"/>
       <c r="D21" s="266"/>
@@ -5166,7 +5198,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="314"/>
+      <c r="A22" s="315"/>
       <c r="B22" s="26"/>
       <c r="C22" s="266"/>
       <c r="D22" s="266"/>
@@ -5178,7 +5210,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="314"/>
+      <c r="A23" s="315"/>
       <c r="B23" s="26"/>
       <c r="C23" s="266"/>
       <c r="D23" s="266"/>
@@ -5190,7 +5222,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="314"/>
+      <c r="A24" s="315"/>
       <c r="B24" s="26"/>
       <c r="C24" s="266"/>
       <c r="D24" s="266"/>
@@ -5202,7 +5234,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="314"/>
+      <c r="A25" s="315"/>
       <c r="B25" s="26"/>
       <c r="C25" s="266"/>
       <c r="D25" s="266"/>
@@ -5214,7 +5246,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="314"/>
+      <c r="A26" s="315"/>
       <c r="B26" s="26"/>
       <c r="C26" s="266"/>
       <c r="D26" s="266"/>
@@ -5226,7 +5258,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="314"/>
+      <c r="A27" s="315"/>
       <c r="B27" s="26"/>
       <c r="C27" s="266"/>
       <c r="D27" s="266"/>
@@ -5238,7 +5270,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="314"/>
+      <c r="A28" s="315"/>
       <c r="B28" s="26"/>
       <c r="C28" s="266"/>
       <c r="D28" s="266"/>
@@ -5250,7 +5282,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="314"/>
+      <c r="A29" s="315"/>
       <c r="B29" s="26"/>
       <c r="C29" s="266"/>
       <c r="D29" s="266"/>
@@ -5262,7 +5294,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="314"/>
+      <c r="A30" s="315"/>
       <c r="B30" s="26"/>
       <c r="C30" s="266"/>
       <c r="D30" s="266"/>
@@ -5274,7 +5306,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="314"/>
+      <c r="A31" s="315"/>
       <c r="B31" s="26"/>
       <c r="C31" s="266"/>
       <c r="D31" s="266"/>
@@ -5286,7 +5318,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="314"/>
+      <c r="A32" s="315"/>
       <c r="B32" s="26"/>
       <c r="C32" s="266"/>
       <c r="D32" s="266"/>
@@ -5298,7 +5330,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="314"/>
+      <c r="A33" s="315"/>
       <c r="B33" s="26"/>
       <c r="C33" s="266"/>
       <c r="D33" s="269"/>
@@ -5310,7 +5342,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="314"/>
+      <c r="A34" s="315"/>
       <c r="B34" s="26"/>
       <c r="C34" s="266"/>
       <c r="D34" s="266"/>
@@ -5322,7 +5354,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="314"/>
+      <c r="A35" s="315"/>
       <c r="B35" s="26"/>
       <c r="C35" s="266"/>
       <c r="D35" s="266"/>
@@ -5334,7 +5366,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="314"/>
+      <c r="A36" s="315"/>
       <c r="B36" s="26"/>
       <c r="C36" s="266"/>
       <c r="D36" s="266"/>
@@ -5346,7 +5378,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="314"/>
+      <c r="A37" s="315"/>
       <c r="B37" s="26"/>
       <c r="C37" s="266"/>
       <c r="D37" s="266"/>
@@ -5358,7 +5390,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="314"/>
+      <c r="A38" s="315"/>
       <c r="B38" s="26"/>
       <c r="C38" s="266"/>
       <c r="D38" s="266"/>
@@ -5370,7 +5402,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="314"/>
+      <c r="A39" s="315"/>
       <c r="B39" s="26"/>
       <c r="C39" s="266"/>
       <c r="D39" s="266"/>
@@ -5382,7 +5414,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="314"/>
+      <c r="A40" s="315"/>
       <c r="B40" s="26"/>
       <c r="C40" s="266"/>
       <c r="D40" s="266"/>
@@ -5394,7 +5426,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="314"/>
+      <c r="A41" s="315"/>
       <c r="B41" s="26"/>
       <c r="C41" s="266"/>
       <c r="D41" s="266"/>
@@ -5406,7 +5438,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="314"/>
+      <c r="A42" s="315"/>
       <c r="B42" s="26"/>
       <c r="C42" s="266"/>
       <c r="D42" s="266"/>
@@ -5418,7 +5450,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="314"/>
+      <c r="A43" s="315"/>
       <c r="B43" s="26"/>
       <c r="C43" s="266"/>
       <c r="D43" s="266"/>
@@ -5430,7 +5462,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="314"/>
+      <c r="A44" s="315"/>
       <c r="B44" s="26"/>
       <c r="C44" s="266"/>
       <c r="D44" s="266"/>
@@ -5442,7 +5474,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="314"/>
+      <c r="A45" s="315"/>
       <c r="B45" s="26"/>
       <c r="C45" s="266"/>
       <c r="D45" s="266"/>
@@ -5454,7 +5486,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="314"/>
+      <c r="A46" s="315"/>
       <c r="B46" s="26"/>
       <c r="C46" s="266"/>
       <c r="D46" s="266"/>
@@ -5466,7 +5498,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="314"/>
+      <c r="A47" s="315"/>
       <c r="B47" s="26"/>
       <c r="C47" s="266"/>
       <c r="D47" s="266"/>
@@ -5478,7 +5510,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="314"/>
+      <c r="A48" s="315"/>
       <c r="B48" s="26"/>
       <c r="C48" s="266"/>
       <c r="D48" s="266"/>
@@ -5490,7 +5522,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="314"/>
+      <c r="A49" s="315"/>
       <c r="B49" s="26"/>
       <c r="C49" s="266"/>
       <c r="D49" s="266"/>
@@ -5502,7 +5534,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="314"/>
+      <c r="A50" s="315"/>
       <c r="B50" s="26"/>
       <c r="C50" s="266"/>
       <c r="D50" s="266"/>
@@ -5514,7 +5546,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="314"/>
+      <c r="A51" s="315"/>
       <c r="B51" s="26"/>
       <c r="C51" s="266"/>
       <c r="D51" s="266"/>
@@ -5526,7 +5558,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="314"/>
+      <c r="A52" s="315"/>
       <c r="B52" s="26"/>
       <c r="C52" s="266"/>
       <c r="D52" s="266"/>
@@ -5538,7 +5570,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="314"/>
+      <c r="A53" s="315"/>
       <c r="B53" s="26"/>
       <c r="C53" s="266"/>
       <c r="D53" s="266"/>
@@ -5550,7 +5582,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="314"/>
+      <c r="A54" s="315"/>
       <c r="B54" s="26"/>
       <c r="C54" s="266"/>
       <c r="D54" s="266"/>
@@ -5562,7 +5594,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="314"/>
+      <c r="A55" s="315"/>
       <c r="B55" s="26"/>
       <c r="C55" s="266"/>
       <c r="D55" s="266"/>
@@ -5573,7 +5605,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="314"/>
+      <c r="A56" s="315"/>
       <c r="B56" s="26"/>
       <c r="C56" s="266"/>
       <c r="D56" s="266"/>
@@ -5584,7 +5616,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="314"/>
+      <c r="A57" s="315"/>
       <c r="B57" s="26"/>
       <c r="C57" s="266"/>
       <c r="D57" s="266"/>
@@ -5595,7 +5627,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="314"/>
+      <c r="A58" s="315"/>
       <c r="B58" s="26"/>
       <c r="C58" s="266"/>
       <c r="D58" s="266"/>
@@ -5606,7 +5638,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="314"/>
+      <c r="A59" s="315"/>
       <c r="B59" s="26"/>
       <c r="C59" s="266"/>
       <c r="D59" s="266"/>
@@ -5617,7 +5649,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="314"/>
+      <c r="A60" s="315"/>
       <c r="B60" s="26"/>
       <c r="C60" s="266"/>
       <c r="D60" s="266"/>
@@ -5628,7 +5660,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="314"/>
+      <c r="A61" s="315"/>
       <c r="B61" s="26"/>
       <c r="C61" s="266"/>
       <c r="D61" s="266"/>
@@ -5639,7 +5671,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="314"/>
+      <c r="A62" s="315"/>
       <c r="B62" s="26"/>
       <c r="C62" s="266"/>
       <c r="D62" s="266"/>
@@ -5650,7 +5682,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="314"/>
+      <c r="A63" s="315"/>
       <c r="B63" s="26"/>
       <c r="C63" s="266"/>
       <c r="D63" s="266"/>
@@ -5661,7 +5693,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="314"/>
+      <c r="A64" s="315"/>
       <c r="B64" s="26"/>
       <c r="C64" s="266"/>
       <c r="D64" s="266"/>
@@ -5672,7 +5704,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="314"/>
+      <c r="A65" s="315"/>
       <c r="B65" s="26"/>
       <c r="C65" s="266"/>
       <c r="D65" s="266"/>
@@ -5683,7 +5715,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="314"/>
+      <c r="A66" s="315"/>
       <c r="B66" s="26"/>
       <c r="C66" s="266"/>
       <c r="D66" s="266"/>
@@ -5694,7 +5726,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="314"/>
+      <c r="A67" s="315"/>
       <c r="B67" s="26"/>
       <c r="C67" s="266"/>
       <c r="D67" s="266"/>
@@ -5705,7 +5737,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="314"/>
+      <c r="A68" s="315"/>
       <c r="B68" s="26"/>
       <c r="C68" s="266"/>
       <c r="D68" s="266"/>
@@ -5716,7 +5748,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="314"/>
+      <c r="A69" s="315"/>
       <c r="B69" s="26"/>
       <c r="C69" s="266"/>
       <c r="D69" s="266"/>
@@ -5727,7 +5759,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="314"/>
+      <c r="A70" s="315"/>
       <c r="B70" s="26"/>
       <c r="C70" s="266"/>
       <c r="D70" s="266"/>
@@ -5738,7 +5770,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="314"/>
+      <c r="A71" s="315"/>
       <c r="B71" s="26"/>
       <c r="C71" s="266"/>
       <c r="D71" s="266"/>
@@ -5749,7 +5781,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="314"/>
+      <c r="A72" s="315"/>
       <c r="B72" s="26"/>
       <c r="C72" s="266"/>
       <c r="D72" s="266"/>
@@ -5760,7 +5792,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="314"/>
+      <c r="A73" s="315"/>
       <c r="B73" s="26"/>
       <c r="C73" s="266"/>
       <c r="D73" s="266"/>
@@ -5771,7 +5803,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="314"/>
+      <c r="A74" s="315"/>
       <c r="B74" s="26"/>
       <c r="C74" s="266"/>
       <c r="D74" s="266"/>
@@ -5782,7 +5814,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="314"/>
+      <c r="A75" s="315"/>
       <c r="B75" s="26"/>
       <c r="C75" s="266"/>
       <c r="D75" s="266"/>
@@ -5793,7 +5825,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="314"/>
+      <c r="A76" s="315"/>
       <c r="B76" s="26"/>
       <c r="C76" s="266"/>
       <c r="D76" s="266"/>
@@ -5804,7 +5836,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="314"/>
+      <c r="A77" s="315"/>
       <c r="B77" s="26"/>
       <c r="C77" s="266"/>
       <c r="D77" s="266"/>
@@ -5815,7 +5847,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="314"/>
+      <c r="A78" s="315"/>
       <c r="B78" s="26"/>
       <c r="C78" s="266"/>
       <c r="D78" s="266"/>
@@ -5826,7 +5858,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="314"/>
+      <c r="A79" s="315"/>
       <c r="B79" s="26"/>
       <c r="C79" s="266"/>
       <c r="D79" s="266"/>
@@ -5838,7 +5870,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="314"/>
+      <c r="A80" s="315"/>
       <c r="B80" s="26"/>
       <c r="C80" s="266"/>
       <c r="D80" s="266"/>
@@ -5850,7 +5882,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="314"/>
+      <c r="A81" s="315"/>
       <c r="B81" s="26"/>
       <c r="C81" s="266"/>
       <c r="D81" s="266"/>
@@ -5862,7 +5894,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="314"/>
+      <c r="A82" s="315"/>
       <c r="B82" s="26"/>
       <c r="C82" s="266"/>
       <c r="D82" s="266"/>
@@ -5874,7 +5906,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="314"/>
+      <c r="A83" s="315"/>
       <c r="B83" s="31"/>
       <c r="C83" s="268">
         <f>SUM(C5:C72)</f>
@@ -5932,67 +5964,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-      <c r="M1" s="319"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="319"/>
-      <c r="P1" s="319"/>
-      <c r="Q1" s="319"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="318"/>
+      <c r="O1" s="318"/>
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
     </row>
     <row r="2" spans="1:24" s="72" customFormat="1" ht="18">
-      <c r="A2" s="320" t="s">
+      <c r="A2" s="319" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="320"/>
-      <c r="N2" s="320"/>
-      <c r="O2" s="320"/>
-      <c r="P2" s="320"/>
-      <c r="Q2" s="320"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="319"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="319"/>
+      <c r="P2" s="319"/>
+      <c r="Q2" s="319"/>
     </row>
     <row r="3" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="321" t="s">
+      <c r="A3" s="320" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="322"/>
-      <c r="M3" s="322"/>
-      <c r="N3" s="322"/>
-      <c r="O3" s="322"/>
-      <c r="P3" s="322"/>
-      <c r="Q3" s="323"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="321"/>
+      <c r="M3" s="321"/>
+      <c r="N3" s="321"/>
+      <c r="O3" s="321"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="322"/>
       <c r="S3" s="56"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6001,50 +6033,50 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="324" t="s">
+      <c r="A4" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="326" t="s">
+      <c r="B4" s="325" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="315" t="s">
+      <c r="C4" s="327" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="315" t="s">
+      <c r="D4" s="327" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="315" t="s">
+      <c r="E4" s="327" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315" t="s">
+      <c r="F4" s="327"/>
+      <c r="G4" s="327" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="315" t="s">
+      <c r="H4" s="327" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="315" t="s">
+      <c r="I4" s="327" t="s">
         <v>156</v>
       </c>
-      <c r="J4" s="315" t="s">
+      <c r="J4" s="327" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="315" t="s">
+      <c r="K4" s="327" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="315" t="s">
+      <c r="L4" s="327" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="315" t="s">
+      <c r="M4" s="327" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="315" t="s">
+      <c r="N4" s="327" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="317" t="s">
+      <c r="O4" s="316" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="328" t="s">
+      <c r="P4" s="329" t="s">
         <v>70</v>
       </c>
       <c r="Q4" s="135" t="s">
@@ -6057,22 +6089,22 @@
       <c r="W4" s="76"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="325"/>
-      <c r="B5" s="327"/>
-      <c r="C5" s="316"/>
-      <c r="D5" s="316"/>
-      <c r="E5" s="316"/>
-      <c r="F5" s="316"/>
-      <c r="G5" s="316"/>
-      <c r="H5" s="316"/>
-      <c r="I5" s="316"/>
-      <c r="J5" s="316"/>
-      <c r="K5" s="316"/>
-      <c r="L5" s="316"/>
-      <c r="M5" s="316"/>
-      <c r="N5" s="316"/>
-      <c r="O5" s="318"/>
-      <c r="P5" s="329"/>
+      <c r="A5" s="324"/>
+      <c r="B5" s="326"/>
+      <c r="C5" s="328"/>
+      <c r="D5" s="328"/>
+      <c r="E5" s="328"/>
+      <c r="F5" s="328"/>
+      <c r="G5" s="328"/>
+      <c r="H5" s="328"/>
+      <c r="I5" s="328"/>
+      <c r="J5" s="328"/>
+      <c r="K5" s="328"/>
+      <c r="L5" s="328"/>
+      <c r="M5" s="328"/>
+      <c r="N5" s="328"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="330"/>
       <c r="Q5" s="136" t="s">
         <v>45</v>
       </c>
@@ -9001,6 +9033,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9017,9 +9052,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9032,8 +9064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9060,14 +9092,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="335" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="336"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="337"/>
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
       <c r="I1" s="152"/>
@@ -9161,14 +9193,14 @@
       <c r="CS1" s="147"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="337" t="s">
+      <c r="A2" s="338" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="338"/>
-      <c r="C2" s="338"/>
-      <c r="D2" s="338"/>
-      <c r="E2" s="338"/>
-      <c r="F2" s="339"/>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="340"/>
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
       <c r="I2" s="152"/>
@@ -9262,14 +9294,14 @@
       <c r="CS2" s="147"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="340" t="s">
+      <c r="A3" s="341" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
-      <c r="F3" s="342"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="343"/>
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
       <c r="I3" s="152"/>
@@ -12572,12 +12604,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="142"/>
-      <c r="B35" s="332" t="s">
+      <c r="B35" s="333" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="332"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="332"/>
+      <c r="C35" s="333"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="333"/>
       <c r="F35" s="143"/>
       <c r="G35" s="148"/>
       <c r="H35" s="148"/>
@@ -12689,7 +12721,7 @@
       </c>
       <c r="F36" s="193">
         <f>F33-D119+L121</f>
-        <v>0</v>
+        <v>-378055</v>
       </c>
       <c r="G36" s="148"/>
       <c r="H36" s="148"/>
@@ -13434,10 +13466,10 @@
       <c r="D43" s="218"/>
       <c r="E43" s="185"/>
       <c r="F43" s="143"/>
-      <c r="G43" s="333"/>
-      <c r="H43" s="333"/>
-      <c r="I43" s="333"/>
-      <c r="J43" s="333"/>
+      <c r="G43" s="334"/>
+      <c r="H43" s="334"/>
+      <c r="I43" s="334"/>
+      <c r="J43" s="334"/>
       <c r="K43" s="67"/>
       <c r="L43" s="152"/>
       <c r="M43" s="67"/>
@@ -15073,11 +15105,13 @@
       <c r="CS56" s="147"/>
     </row>
     <row r="57" spans="1:97">
-      <c r="A57" s="238"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="221"/>
-      <c r="E57" s="189"/>
+      <c r="A57" s="363" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" s="364"/>
+      <c r="C57" s="364"/>
+      <c r="D57" s="364"/>
+      <c r="E57" s="365"/>
       <c r="F57" s="141"/>
       <c r="G57" s="147"/>
       <c r="H57" s="197" t="s">
@@ -16891,10 +16925,13 @@
       <c r="CS71" s="147"/>
     </row>
     <row r="72" spans="1:97">
-      <c r="A72" s="238"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="125"/>
-      <c r="D72" s="221"/>
+      <c r="A72" s="361"/>
+      <c r="B72" s="362"/>
+      <c r="C72" s="366"/>
+      <c r="D72" s="221">
+        <f>SUM(D58:D71)</f>
+        <v>378055</v>
+      </c>
       <c r="E72" s="187"/>
       <c r="F72" s="143"/>
       <c r="G72" s="147"/>
@@ -18212,10 +18249,10 @@
     </row>
     <row r="83" spans="1:97">
       <c r="A83" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="B83" s="60" t="s">
         <v>214</v>
-      </c>
-      <c r="B83" s="60" t="s">
-        <v>215</v>
       </c>
       <c r="C83" s="125"/>
       <c r="D83" s="221">
@@ -18570,10 +18607,10 @@
     </row>
     <row r="86" spans="1:97">
       <c r="A86" s="238" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" s="60" t="s">
         <v>212</v>
-      </c>
-      <c r="B86" s="60" t="s">
-        <v>213</v>
       </c>
       <c r="C86" s="125"/>
       <c r="D86" s="221">
@@ -21367,7 +21404,7 @@
         <v>165</v>
       </c>
       <c r="B113" s="60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C113" s="125"/>
       <c r="D113" s="221">
@@ -22033,14 +22070,14 @@
       <c r="CS118" s="147"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="330" t="s">
+      <c r="A119" s="331" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="331"/>
-      <c r="C119" s="343"/>
+      <c r="B119" s="332"/>
+      <c r="C119" s="344"/>
       <c r="D119" s="224">
         <f>SUM(D37:D118)</f>
-        <v>2537735</v>
+        <v>2915790</v>
       </c>
       <c r="E119" s="216"/>
       <c r="F119" s="147"/>
@@ -22240,14 +22277,14 @@
       <c r="CS120" s="147"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="330" t="s">
+      <c r="A121" s="331" t="s">
         <v>32</v>
       </c>
-      <c r="B121" s="331"/>
-      <c r="C121" s="331"/>
+      <c r="B121" s="332"/>
+      <c r="C121" s="332"/>
       <c r="D121" s="224">
         <f>D119+M121</f>
-        <v>2537735</v>
+        <v>2915790</v>
       </c>
       <c r="E121" s="216"/>
       <c r="F121" s="147"/>
@@ -33456,7 +33493,7 @@
   <sortState ref="B37:E44">
     <sortCondition ref="B37"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A121:C121"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="G43:J43"/>
@@ -33464,6 +33501,8 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A72:C72"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -33480,7 +33519,7 @@
   <dimension ref="A1:Y218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E29"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33498,35 +33537,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="345" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="346"/>
+      <c r="B1" s="346"/>
+      <c r="C1" s="346"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="347"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="353" t="s">
+      <c r="A2" s="354" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="354"/>
-      <c r="C2" s="354"/>
-      <c r="D2" s="354"/>
-      <c r="E2" s="355"/>
+      <c r="B2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="356"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="347" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" s="348"/>
-      <c r="C3" s="348"/>
-      <c r="D3" s="348"/>
-      <c r="E3" s="349"/>
+      <c r="A3" s="348" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="349"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="350"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33549,15 +33588,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="356" t="s">
+      <c r="A4" s="357" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="357"/>
+      <c r="B4" s="358"/>
       <c r="C4" s="280"/>
-      <c r="D4" s="358" t="s">
+      <c r="D4" s="359" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="359"/>
+      <c r="E4" s="360"/>
       <c r="F4" s="5"/>
       <c r="G4" s="48"/>
       <c r="H4" s="7"/>
@@ -33867,7 +33906,7 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="21.75">
-      <c r="A14" s="360"/>
+      <c r="A14" s="311"/>
       <c r="B14" s="261"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -33895,7 +33934,7 @@
     </row>
     <row r="15" spans="1:25" ht="21.75">
       <c r="A15" s="304" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="305">
         <v>500000</v>
@@ -34025,13 +34064,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="350" t="s">
+      <c r="A19" s="351" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="351"/>
-      <c r="C19" s="351"/>
-      <c r="D19" s="351"/>
-      <c r="E19" s="352"/>
+      <c r="B19" s="352"/>
+      <c r="C19" s="352"/>
+      <c r="D19" s="352"/>
+      <c r="E19" s="353"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
